--- a/WGRDBESstockCoord/format/Examples_RCEFv16.1.xlsx
+++ b/WGRDBESstockCoord/format/Examples_RCEFv16.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93EA067-0090-44EC-8204-2378F569EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6882D8-FAF0-4427-8C79-82956D43CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3105" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="10" r:id="rId1"/>
@@ -1240,11 +1240,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFCC"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FF00FFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1620,20 +1620,20 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>90</v>
       </c>
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="E3" s="58"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>97</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="F5" s="59"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="F6" s="60"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="F7" s="60"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="F8" s="60"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="F9" s="60"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F10" s="60"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="F11" s="60"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>96</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="F12" s="60"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="F13" s="60"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="F14" s="60"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="F15" s="60"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="F16" s="60"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>62</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>126</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>16</v>
       </c>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="E27" s="31"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>81</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>20</v>
       </c>
@@ -2021,19 +2021,19 @@
       </c>
       <c r="E30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="35"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="35"/>
       <c r="E32" s="35"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="35"/>
       <c r="E33" s="35"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>101</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="32" t="s">
         <v>1</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="H36" s="37"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
         <v>2</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="H37" s="37"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="32" t="s">
         <v>3</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="H38" s="37"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="32" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H39" s="37"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="32" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="H40" s="37"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="32" t="s">
         <v>6</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="H42" s="37"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="32" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H43" s="37"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H44" s="37"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="H45" s="37"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>94</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" s="37"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>95</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="H47" s="37"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>11</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="H48" s="37"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="32" t="s">
         <v>54</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="34" t="s">
         <v>62</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="H50" s="37"/>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="32" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="H51" s="37"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="34" t="s">
         <v>126</v>
       </c>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="H52" s="37"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="32" t="s">
         <v>16</v>
       </c>
@@ -2292,19 +2292,19 @@
       </c>
       <c r="H53" s="37"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G78" s="37"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G79" s="37"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G80" s="35"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" s="35"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" s="35"/>
     </row>
   </sheetData>
@@ -2319,40 +2319,40 @@
   </sheetPr>
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="43.5546875" customWidth="1"/>
     <col min="12" max="12" width="33" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" customWidth="1"/>
-    <col min="15" max="15" width="86.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29.109375" customWidth="1"/>
+    <col min="14" max="14" width="26.5546875" customWidth="1"/>
+    <col min="15" max="15" width="86.33203125" customWidth="1"/>
     <col min="16" max="16" width="50" customWidth="1"/>
-    <col min="17" max="17" width="48.42578125" customWidth="1"/>
-    <col min="18" max="18" width="49.42578125" customWidth="1"/>
-    <col min="19" max="20" width="31.42578125" customWidth="1"/>
+    <col min="17" max="17" width="48.44140625" customWidth="1"/>
+    <col min="18" max="18" width="49.44140625" customWidth="1"/>
+    <col min="19" max="20" width="31.44140625" customWidth="1"/>
     <col min="21" max="21" width="16" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>123</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="R2" s="17"/>
       <c r="U2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="R3" s="17"/>
       <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
     </row>
-    <row r="5" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
     </row>
-    <row r="6" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>1</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
     </row>
-    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
     </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>1</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
     </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
     </row>
-    <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="23"/>
     </row>
-    <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
     </row>
-    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
     </row>
-    <row r="20" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>1</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
     </row>
-    <row r="21" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>1</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
     </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>2</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
     </row>
-    <row r="30" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>2</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
     </row>
-    <row r="31" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>2</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
     </row>
-    <row r="32" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>2</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
     </row>
-    <row r="33" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>2</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
     </row>
-    <row r="34" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>2</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="44"/>
     </row>
-    <row r="35" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>2</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="U35" s="26"/>
       <c r="V35" s="26"/>
     </row>
-    <row r="36" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>2</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
     </row>
-    <row r="37" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>2</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="X37" s="26"/>
       <c r="Y37" s="26"/>
     </row>
-    <row r="38" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>2</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="U38" s="26"/>
       <c r="V38" s="26"/>
     </row>
-    <row r="39" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>2</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="U39" s="26"/>
       <c r="V39" s="26"/>
     </row>
-    <row r="40" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>2</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="R40" s="17"/>
       <c r="U40" s="19"/>
     </row>
-    <row r="41" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>2</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="R41" s="17"/>
       <c r="U41" s="19"/>
     </row>
-    <row r="42" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>2</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="R42" s="17"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="43" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>2</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
     </row>
-    <row r="44" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>2</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="R44" s="17"/>
       <c r="U44" s="19"/>
     </row>
-    <row r="45" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>2</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="X45" s="19"/>
       <c r="Y45" s="19"/>
     </row>
-    <row r="46" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>3</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="X46" s="49"/>
       <c r="Y46" s="49"/>
     </row>
-    <row r="47" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>3</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="X47" s="49"/>
       <c r="Y47" s="49"/>
     </row>
-    <row r="48" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>3</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="X48" s="49"/>
       <c r="Y48" s="49"/>
     </row>
-    <row r="49" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>3</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="X49" s="49"/>
       <c r="Y49" s="49"/>
     </row>
-    <row r="50" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>3</v>
       </c>
@@ -4932,7 +4932,7 @@
       <c r="X50" s="49"/>
       <c r="Y50" s="49"/>
     </row>
-    <row r="51" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>3</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="X51" s="49"/>
       <c r="Y51" s="49"/>
     </row>
-    <row r="52" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>3</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="X52" s="49"/>
       <c r="Y52" s="49"/>
     </row>
-    <row r="53" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>3</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="X53" s="49"/>
       <c r="Y53" s="49"/>
     </row>
-    <row r="54" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28">
         <v>4</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28">
         <v>4</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="X55" s="40"/>
       <c r="Y55" s="40"/>
     </row>
-    <row r="56" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28">
         <v>4</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28">
         <v>4</v>
       </c>
@@ -5396,37 +5396,37 @@
   </sheetPr>
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -5504,11 +5504,11 @@
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6">
+        <v>127150</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>24</v>
@@ -5550,7 +5550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -5560,11 +5560,11 @@
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>127150</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>24</v>
@@ -5606,7 +5606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -5616,11 +5616,11 @@
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>127150</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>24</v>
@@ -5662,7 +5662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -5672,11 +5672,11 @@
       <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>127150</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>24</v>
@@ -5718,7 +5718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -5728,11 +5728,11 @@
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>127150</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>24</v>
@@ -5774,7 +5774,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -5784,11 +5784,11 @@
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>127150</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>24</v>
@@ -5830,7 +5830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -5840,11 +5840,11 @@
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>127150</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -5886,7 +5886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -5896,11 +5896,11 @@
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6">
-        <v>127150</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
+        <v>127150</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -5942,7 +5942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5952,11 +5952,11 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
-        <v>127151</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>127150</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -5998,7 +5998,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -6008,11 +6008,11 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
-        <v>127152</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>127150</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -6054,7 +6054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -6064,11 +6064,11 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1">
-        <v>127153</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>127150</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -6110,7 +6110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6120,11 +6120,11 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1">
-        <v>127154</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>127150</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -6166,7 +6166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -6176,11 +6176,11 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
-        <v>127155</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>127150</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -6222,7 +6222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -6232,11 +6232,11 @@
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
-        <v>127156</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>127150</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -6278,7 +6278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -6288,11 +6288,11 @@
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
-        <v>127157</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1">
+        <v>127150</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -6334,7 +6334,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -6344,11 +6344,11 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1">
-        <v>127158</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>127150</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -6390,7 +6390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
@@ -6400,11 +6400,11 @@
       <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="15">
-        <v>127151</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>23</v>
+      <c r="D18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15">
+        <v>127150</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>24</v>
@@ -6449,7 +6449,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
@@ -6459,11 +6459,11 @@
       <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="15">
-        <v>127152</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>23</v>
+      <c r="D19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15">
+        <v>127150</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>24</v>
@@ -6508,7 +6508,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
@@ -6518,11 +6518,11 @@
       <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="15">
-        <v>127153</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>23</v>
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15">
+        <v>127150</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>24</v>
@@ -6567,7 +6567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
@@ -6577,11 +6577,11 @@
       <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15">
-        <v>127154</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>23</v>
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="15">
+        <v>127150</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>24</v>
@@ -6626,7 +6626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -6636,11 +6636,11 @@
       <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>23</v>
+      <c r="D22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="11">
+        <v>127150</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>24</v>
@@ -6688,7 +6688,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
@@ -6698,11 +6698,11 @@
       <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>23</v>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11">
+        <v>127150</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>24</v>
@@ -6750,7 +6750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -6760,11 +6760,11 @@
       <c r="C24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>23</v>
+      <c r="D24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="11">
+        <v>127150</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>24</v>
@@ -6812,7 +6812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
@@ -6822,11 +6822,11 @@
       <c r="C25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>23</v>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11">
+        <v>127150</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>24</v>
@@ -6874,7 +6874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -6884,11 +6884,11 @@
       <c r="C26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>23</v>
+      <c r="D26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11">
+        <v>127150</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>24</v>
@@ -6936,7 +6936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
@@ -6946,11 +6946,11 @@
       <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>23</v>
+      <c r="D27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="11">
+        <v>127150</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>24</v>
@@ -6998,7 +6998,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -7008,11 +7008,11 @@
       <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>23</v>
+      <c r="D28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11">
+        <v>127150</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>24</v>
@@ -7060,7 +7060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
@@ -7070,11 +7070,11 @@
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>23</v>
+      <c r="D29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="11">
+        <v>127150</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>24</v>
@@ -7122,7 +7122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -7132,11 +7132,11 @@
       <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>23</v>
+      <c r="D30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="11">
+        <v>127150</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>24</v>
@@ -7184,7 +7184,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>21</v>
       </c>
@@ -7194,11 +7194,11 @@
       <c r="C31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>23</v>
+      <c r="D31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="11">
+        <v>127150</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>24</v>
@@ -7246,7 +7246,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -7256,11 +7256,11 @@
       <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>23</v>
+      <c r="D32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="11">
+        <v>127150</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>24</v>
@@ -7308,7 +7308,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>21</v>
       </c>
@@ -7318,11 +7318,11 @@
       <c r="C33" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>23</v>
+      <c r="D33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="11">
+        <v>127150</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>24</v>
@@ -7370,7 +7370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>21</v>
       </c>
@@ -7380,11 +7380,11 @@
       <c r="C34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>23</v>
+      <c r="D34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="11">
+        <v>127150</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>24</v>
@@ -7432,7 +7432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>21</v>
       </c>
@@ -7442,11 +7442,11 @@
       <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>23</v>
+      <c r="D35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="11">
+        <v>127150</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>24</v>
@@ -7494,7 +7494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>21</v>
       </c>
@@ -7504,11 +7504,11 @@
       <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>23</v>
+      <c r="D36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="11">
+        <v>127150</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>24</v>
@@ -7556,7 +7556,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -7566,11 +7566,11 @@
       <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="11">
-        <v>127150</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>23</v>
+      <c r="D37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="11">
+        <v>127150</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>24</v>
@@ -7618,7 +7618,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>21</v>
       </c>
@@ -7628,11 +7628,11 @@
       <c r="C38" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>23</v>
+      <c r="D38" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="28">
+        <v>127150</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>24</v>
@@ -7680,7 +7680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>21</v>
       </c>
@@ -7690,11 +7690,11 @@
       <c r="C39" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>23</v>
+      <c r="D39" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="28">
+        <v>127150</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>24</v>
@@ -7742,7 +7742,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>21</v>
       </c>
@@ -7752,11 +7752,11 @@
       <c r="C40" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>23</v>
+      <c r="D40" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="28">
+        <v>127150</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>24</v>
@@ -7804,7 +7804,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>21</v>
       </c>
@@ -7814,11 +7814,11 @@
       <c r="C41" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>23</v>
+      <c r="D41" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="28">
+        <v>127150</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>24</v>
@@ -7866,7 +7866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>21</v>
       </c>
@@ -7876,11 +7876,11 @@
       <c r="C42" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>23</v>
+      <c r="D42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="28">
+        <v>127150</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>24</v>
@@ -7928,7 +7928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>21</v>
       </c>
@@ -7938,11 +7938,11 @@
       <c r="C43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>23</v>
+      <c r="D43" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="28">
+        <v>127150</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>24</v>
@@ -7990,7 +7990,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>21</v>
       </c>
@@ -8000,11 +8000,11 @@
       <c r="C44" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>23</v>
+      <c r="D44" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="28">
+        <v>127150</v>
       </c>
       <c r="F44" s="28" t="s">
         <v>24</v>
@@ -8052,7 +8052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>21</v>
       </c>
@@ -8062,11 +8062,11 @@
       <c r="C45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="28">
-        <v>127150</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>23</v>
+      <c r="D45" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="28">
+        <v>127150</v>
       </c>
       <c r="F45" s="28" t="s">
         <v>24</v>
@@ -8114,7 +8114,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
         <v>21</v>
       </c>
@@ -8124,11 +8124,11 @@
       <c r="C46" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>23</v>
+      <c r="D46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="21">
+        <v>127150</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>24</v>
@@ -8176,7 +8176,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>21</v>
       </c>
@@ -8186,11 +8186,11 @@
       <c r="C47" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>23</v>
+      <c r="D47" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="21">
+        <v>127150</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>24</v>
@@ -8238,7 +8238,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
         <v>21</v>
       </c>
@@ -8248,11 +8248,11 @@
       <c r="C48" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>23</v>
+      <c r="D48" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="21">
+        <v>127150</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>24</v>
@@ -8300,7 +8300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>21</v>
       </c>
@@ -8310,11 +8310,11 @@
       <c r="C49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>23</v>
+      <c r="D49" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="21">
+        <v>127150</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>24</v>
@@ -8362,7 +8362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>21</v>
       </c>
@@ -8372,11 +8372,11 @@
       <c r="C50" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>23</v>
+      <c r="D50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="21">
+        <v>127150</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>24</v>
@@ -8424,7 +8424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>21</v>
       </c>
@@ -8434,11 +8434,11 @@
       <c r="C51" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>23</v>
+      <c r="D51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="21">
+        <v>127150</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>24</v>
@@ -8486,7 +8486,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
         <v>21</v>
       </c>
@@ -8496,11 +8496,11 @@
       <c r="C52" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>23</v>
+      <c r="D52" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="21">
+        <v>127150</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>24</v>
@@ -8548,7 +8548,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>21</v>
       </c>
@@ -8558,11 +8558,11 @@
       <c r="C53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>23</v>
+      <c r="D53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="21">
+        <v>127150</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>24</v>
@@ -8610,7 +8610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>21</v>
       </c>
@@ -8620,11 +8620,11 @@
       <c r="C54" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>23</v>
+      <c r="D54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="21">
+        <v>127150</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>24</v>
@@ -8672,7 +8672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>21</v>
       </c>
@@ -8682,11 +8682,11 @@
       <c r="C55" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>23</v>
+      <c r="D55" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="21">
+        <v>127150</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>24</v>
@@ -8734,7 +8734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>21</v>
       </c>
@@ -8744,11 +8744,11 @@
       <c r="C56" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>23</v>
+      <c r="D56" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="21">
+        <v>127150</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>24</v>
@@ -8796,7 +8796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>21</v>
       </c>
@@ -8806,11 +8806,11 @@
       <c r="C57" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>23</v>
+      <c r="D57" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="21">
+        <v>127150</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>24</v>
@@ -8858,7 +8858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>21</v>
       </c>
@@ -8868,11 +8868,11 @@
       <c r="C58" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>23</v>
+      <c r="D58" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="21">
+        <v>127150</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>24</v>
@@ -8920,7 +8920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
         <v>21</v>
       </c>
@@ -8930,11 +8930,11 @@
       <c r="C59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>23</v>
+      <c r="D59" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="21">
+        <v>127150</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>24</v>
@@ -8982,7 +8982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
         <v>21</v>
       </c>
@@ -8992,11 +8992,11 @@
       <c r="C60" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>23</v>
+      <c r="D60" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="21">
+        <v>127150</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>24</v>
@@ -9044,7 +9044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>21</v>
       </c>
@@ -9054,11 +9054,11 @@
       <c r="C61" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>23</v>
+      <c r="D61" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="21">
+        <v>127150</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>24</v>
@@ -9106,7 +9106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>21</v>
       </c>
@@ -9116,11 +9116,11 @@
       <c r="C62" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>23</v>
+      <c r="D62" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="21">
+        <v>127150</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>24</v>
@@ -9168,7 +9168,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>21</v>
       </c>
@@ -9178,11 +9178,11 @@
       <c r="C63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>23</v>
+      <c r="D63" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="21">
+        <v>127150</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>24</v>
@@ -9230,7 +9230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>21</v>
       </c>
@@ -9240,11 +9240,11 @@
       <c r="C64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>23</v>
+      <c r="D64" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="21">
+        <v>127150</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>24</v>
@@ -9292,7 +9292,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>21</v>
       </c>
@@ -9302,11 +9302,11 @@
       <c r="C65" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="21">
-        <v>127150</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>23</v>
+      <c r="D65" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="21">
+        <v>127150</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>24</v>
@@ -9354,7 +9354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>21</v>
       </c>
@@ -9364,11 +9364,11 @@
       <c r="C66" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>23</v>
+      <c r="D66" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="24">
+        <v>127150</v>
       </c>
       <c r="F66" s="24" t="s">
         <v>32</v>
@@ -9416,7 +9416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>21</v>
       </c>
@@ -9426,11 +9426,11 @@
       <c r="C67" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>23</v>
+      <c r="D67" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="24">
+        <v>127150</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>32</v>
@@ -9478,7 +9478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>21</v>
       </c>
@@ -9488,11 +9488,11 @@
       <c r="C68" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>23</v>
+      <c r="D68" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="24">
+        <v>127150</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>32</v>
@@ -9540,7 +9540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>21</v>
       </c>
@@ -9550,11 +9550,11 @@
       <c r="C69" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>23</v>
+      <c r="D69" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="24">
+        <v>127150</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>32</v>
@@ -9602,7 +9602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>21</v>
       </c>
@@ -9612,11 +9612,11 @@
       <c r="C70" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>23</v>
+      <c r="D70" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="24">
+        <v>127150</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>32</v>
@@ -9664,7 +9664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>21</v>
       </c>
@@ -9674,11 +9674,11 @@
       <c r="C71" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>23</v>
+      <c r="D71" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="24">
+        <v>127150</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>32</v>
@@ -9726,7 +9726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>21</v>
       </c>
@@ -9736,11 +9736,11 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>23</v>
+      <c r="D72" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="24">
+        <v>127150</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>32</v>
@@ -9788,7 +9788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>21</v>
       </c>
@@ -9798,11 +9798,11 @@
       <c r="C73" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>23</v>
+      <c r="D73" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="24">
+        <v>127150</v>
       </c>
       <c r="F73" s="24" t="s">
         <v>32</v>
@@ -9850,7 +9850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>21</v>
       </c>
@@ -9860,11 +9860,11 @@
       <c r="C74" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>23</v>
+      <c r="D74" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="24">
+        <v>127150</v>
       </c>
       <c r="F74" s="24" t="s">
         <v>32</v>
@@ -9912,7 +9912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>21</v>
       </c>
@@ -9922,11 +9922,11 @@
       <c r="C75" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>23</v>
+      <c r="D75" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="24">
+        <v>127150</v>
       </c>
       <c r="F75" s="24" t="s">
         <v>32</v>
@@ -9974,7 +9974,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>21</v>
       </c>
@@ -9984,11 +9984,11 @@
       <c r="C76" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>23</v>
+      <c r="D76" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="24">
+        <v>127150</v>
       </c>
       <c r="F76" s="24" t="s">
         <v>32</v>
@@ -10036,7 +10036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>21</v>
       </c>
@@ -10046,11 +10046,11 @@
       <c r="C77" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>23</v>
+      <c r="D77" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="24">
+        <v>127150</v>
       </c>
       <c r="F77" s="24" t="s">
         <v>32</v>
@@ -10098,7 +10098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>21</v>
       </c>
@@ -10108,11 +10108,11 @@
       <c r="C78" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>23</v>
+      <c r="D78" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="24">
+        <v>127150</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>32</v>
@@ -10160,7 +10160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>21</v>
       </c>
@@ -10170,11 +10170,11 @@
       <c r="C79" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>23</v>
+      <c r="D79" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="24">
+        <v>127150</v>
       </c>
       <c r="F79" s="24" t="s">
         <v>32</v>
@@ -10222,7 +10222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>21</v>
       </c>
@@ -10232,11 +10232,11 @@
       <c r="C80" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>23</v>
+      <c r="D80" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="24">
+        <v>127150</v>
       </c>
       <c r="F80" s="24" t="s">
         <v>32</v>
@@ -10284,7 +10284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>21</v>
       </c>
@@ -10294,11 +10294,11 @@
       <c r="C81" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>23</v>
+      <c r="D81" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="24">
+        <v>127150</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>32</v>
@@ -10346,7 +10346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>21</v>
       </c>
@@ -10356,11 +10356,11 @@
       <c r="C82" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>23</v>
+      <c r="D82" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="24">
+        <v>127150</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>32</v>
@@ -10408,7 +10408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>21</v>
       </c>
@@ -10418,11 +10418,11 @@
       <c r="C83" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>23</v>
+      <c r="D83" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="24">
+        <v>127150</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>32</v>
@@ -10470,7 +10470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>21</v>
       </c>
@@ -10480,11 +10480,11 @@
       <c r="C84" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>23</v>
+      <c r="D84" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="24">
+        <v>127150</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>32</v>
@@ -10532,7 +10532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>21</v>
       </c>
@@ -10542,11 +10542,11 @@
       <c r="C85" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="24">
-        <v>127150</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>23</v>
+      <c r="D85" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="24">
+        <v>127150</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>32</v>
@@ -10614,24 +10614,24 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>235931</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>589363</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>478521</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>258963</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>256987</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>213694</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>84521</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>52698</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>21</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>21</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>21</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>21</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
@@ -11595,30 +11595,30 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="57.42578125" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="57.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.44140625" customWidth="1"/>
+    <col min="19" max="19" width="18.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>6350</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -11855,27 +11855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1F03D703A58B542A53928B2010DE84B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="081fa4308650b00c87060c415f0fad32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -12052,32 +12031,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C31ECC-F510-47A8-9524-383983ED62C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{573A118E-65EA-41ED-9709-169BBC95E924}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AB7D716-9941-4725-B9AB-97701C6E894F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12094,4 +12069,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{573A118E-65EA-41ED-9709-169BBC95E924}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C31ECC-F510-47A8-9524-383983ED62C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>